--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H2">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I2">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J2">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N2">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O2">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P2">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q2">
-        <v>36.99881483540025</v>
+        <v>15.036891264063</v>
       </c>
       <c r="R2">
-        <v>147.995259341601</v>
+        <v>60.147565056252</v>
       </c>
       <c r="S2">
-        <v>0.01448051208040318</v>
+        <v>0.00543014350354036</v>
       </c>
       <c r="T2">
-        <v>0.007405889174679032</v>
+        <v>0.002671909408474541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H3">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I3">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J3">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P3">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q3">
-        <v>37.4149692480865</v>
+        <v>17.994148004329</v>
       </c>
       <c r="R3">
-        <v>224.489815488519</v>
+        <v>107.964888025974</v>
       </c>
       <c r="S3">
-        <v>0.01464338564884112</v>
+        <v>0.006498072252538799</v>
       </c>
       <c r="T3">
-        <v>0.01123378344514837</v>
+        <v>0.004796077776909362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H4">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I4">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J4">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N4">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O4">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P4">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q4">
-        <v>35.04093474980399</v>
+        <v>23.686213897092</v>
       </c>
       <c r="R4">
-        <v>210.245608498824</v>
+        <v>142.117283382552</v>
       </c>
       <c r="S4">
-        <v>0.01371424142125949</v>
+        <v>0.008553599162092246</v>
       </c>
       <c r="T4">
-        <v>0.01052098346212069</v>
+        <v>0.006313214944304932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H5">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I5">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J5">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N5">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O5">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P5">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q5">
-        <v>16.92594059618625</v>
+        <v>11.0375585614635</v>
       </c>
       <c r="R5">
-        <v>67.70376238474499</v>
+        <v>44.150234245854</v>
       </c>
       <c r="S5">
-        <v>0.006624436170878501</v>
+        <v>0.003985898804809379</v>
       </c>
       <c r="T5">
-        <v>0.003387990690788841</v>
+        <v>0.001961266863546795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H6">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I6">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J6">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N6">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O6">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P6">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q6">
-        <v>22.8267019018275</v>
+        <v>41.159327695973</v>
       </c>
       <c r="R6">
-        <v>136.960211410965</v>
+        <v>246.955966175838</v>
       </c>
       <c r="S6">
-        <v>0.008933862722784146</v>
+        <v>0.01486351480325769</v>
       </c>
       <c r="T6">
-        <v>0.006853679986525739</v>
+        <v>0.01097041865098004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.7536765</v>
+        <v>0.362469</v>
       </c>
       <c r="H7">
-        <v>1.507353</v>
+        <v>0.724938</v>
       </c>
       <c r="I7">
-        <v>0.07241044948256108</v>
+        <v>0.04380312086163575</v>
       </c>
       <c r="J7">
-        <v>0.05015328104483914</v>
+        <v>0.03001348859431293</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N7">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O7">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P7">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q7">
-        <v>35.806870049302</v>
+        <v>12.383348386304</v>
       </c>
       <c r="R7">
-        <v>214.841220295812</v>
+        <v>74.300090317824</v>
       </c>
       <c r="S7">
-        <v>0.01401401143839464</v>
+        <v>0.004471892335397281</v>
       </c>
       <c r="T7">
-        <v>0.01075095428557648</v>
+        <v>0.003300600950097261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J8">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N8">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O8">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P8">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q8">
-        <v>5.913187655853334</v>
+        <v>4.996961604240001</v>
       </c>
       <c r="R8">
-        <v>35.47912593512</v>
+        <v>29.98176962544</v>
       </c>
       <c r="S8">
-        <v>0.002314289948616103</v>
+        <v>0.001804509862856635</v>
       </c>
       <c r="T8">
-        <v>0.001775424941710412</v>
+        <v>0.001331867254642963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J9">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P9">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q9">
         <v>5.979697871031111</v>
@@ -1013,10 +1013,10 @@
         <v>53.81728083928</v>
       </c>
       <c r="S9">
-        <v>0.002340320565505769</v>
+        <v>0.002159396977559847</v>
       </c>
       <c r="T9">
-        <v>0.00269309178788168</v>
+        <v>0.002390701915838274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J10">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N10">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O10">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P10">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q10">
-        <v>5.600277298986667</v>
+        <v>7.871248073493334</v>
       </c>
       <c r="R10">
-        <v>50.40249569088</v>
+        <v>70.84123266144</v>
       </c>
       <c r="S10">
-        <v>0.002191823804150424</v>
+        <v>0.002842476269891269</v>
       </c>
       <c r="T10">
-        <v>0.002522211176726309</v>
+        <v>0.003146949604344138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J11">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N11">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O11">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P11">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q11">
-        <v>2.705120784066667</v>
+        <v>3.667929452146667</v>
       </c>
       <c r="R11">
-        <v>16.2307247044</v>
+        <v>22.00757671288</v>
       </c>
       <c r="S11">
-        <v>0.001058724025807118</v>
+        <v>0.001324567886822429</v>
       </c>
       <c r="T11">
-        <v>0.0008122080999098789</v>
+        <v>0.0009776331131921214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.36136</v>
       </c>
       <c r="I12">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J12">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N12">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O12">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P12">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q12">
-        <v>3.648186367866667</v>
+        <v>13.67779925659556</v>
       </c>
       <c r="R12">
-        <v>32.83367731080001</v>
+        <v>123.10019330936</v>
       </c>
       <c r="S12">
-        <v>0.001427818891131354</v>
+        <v>0.004939346269892688</v>
       </c>
       <c r="T12">
-        <v>0.001643043003152507</v>
+        <v>0.005468426932673066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.36136</v>
       </c>
       <c r="I13">
-        <v>0.01157271058383726</v>
+        <v>0.01455636735330994</v>
       </c>
       <c r="J13">
-        <v>0.01202332143722345</v>
+        <v>0.01496083008262903</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N13">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O13">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P13">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q13">
-        <v>5.722689845937778</v>
+        <v>4.11515354680889</v>
       </c>
       <c r="R13">
-        <v>51.50420861344001</v>
+        <v>37.03638192128</v>
       </c>
       <c r="S13">
-        <v>0.002239733348626493</v>
+        <v>0.001486070086287068</v>
       </c>
       <c r="T13">
-        <v>0.002577342427842659</v>
+        <v>0.001645251261938464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H14">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I14">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J14">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N14">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O14">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P14">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q14">
-        <v>167.8170216761885</v>
+        <v>124.06682943009</v>
       </c>
       <c r="R14">
-        <v>1006.902130057131</v>
+        <v>744.4009765805401</v>
       </c>
       <c r="S14">
-        <v>0.06567984462448906</v>
+        <v>0.0448031894361533</v>
       </c>
       <c r="T14">
-        <v>0.05038678683442954</v>
+        <v>0.03306820435944546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H15">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I15">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J15">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P15">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q15">
-        <v>169.7045900862877</v>
+        <v>148.46665125047</v>
       </c>
       <c r="R15">
-        <v>1527.341310776589</v>
+        <v>1336.19986125423</v>
       </c>
       <c r="S15">
-        <v>0.06641859685984111</v>
+        <v>0.05361448770377663</v>
       </c>
       <c r="T15">
-        <v>0.07643028925279127</v>
+        <v>0.05935743163582068</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H16">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I16">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J16">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N16">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O16">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P16">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q16">
-        <v>158.936585742616</v>
+        <v>195.43091772156</v>
       </c>
       <c r="R16">
-        <v>1430.429271683544</v>
+        <v>1758.87825949404</v>
       </c>
       <c r="S16">
-        <v>0.0622042397872145</v>
+        <v>0.07057429023197688</v>
       </c>
       <c r="T16">
-        <v>0.07158067566105709</v>
+        <v>0.07813389229486288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H17">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I17">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J17">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N17">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O17">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P17">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q17">
-        <v>76.77167370243249</v>
+        <v>91.06901628280501</v>
       </c>
       <c r="R17">
-        <v>460.6300422145949</v>
+        <v>546.4140976968301</v>
       </c>
       <c r="S17">
-        <v>0.03004672321063601</v>
+        <v>0.0328869723440605</v>
       </c>
       <c r="T17">
-        <v>0.02305056971652664</v>
+        <v>0.02427311840793349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H18">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I18">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J18">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N18">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O18">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P18">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q18">
-        <v>103.535995541935</v>
+        <v>339.59860446139</v>
       </c>
       <c r="R18">
-        <v>931.8239598774151</v>
+        <v>3056.38744015251</v>
       </c>
       <c r="S18">
-        <v>0.04052168267744299</v>
+        <v>0.1226363297734666</v>
       </c>
       <c r="T18">
-        <v>0.04662977049307992</v>
+        <v>0.1357725844703677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.418481</v>
+        <v>2.99067</v>
       </c>
       <c r="H19">
-        <v>10.255443</v>
+        <v>8.972010000000001</v>
       </c>
       <c r="I19">
-        <v>0.3284350059443207</v>
+        <v>0.3614120917023751</v>
       </c>
       <c r="J19">
-        <v>0.3412233995741729</v>
+        <v>0.3714542758181549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N19">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O19">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P19">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q19">
-        <v>162.4106694755747</v>
+        <v>102.17289897472</v>
       </c>
       <c r="R19">
-        <v>1461.696025280172</v>
+        <v>919.5560907724802</v>
       </c>
       <c r="S19">
-        <v>0.06356391878469705</v>
+        <v>0.03689682221294122</v>
       </c>
       <c r="T19">
-        <v>0.07314530761628847</v>
+        <v>0.04084904464972471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H20">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I20">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J20">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N20">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O20">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P20">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q20">
-        <v>20.4505212522555</v>
+        <v>12.804893877582</v>
       </c>
       <c r="R20">
-        <v>81.80208500902201</v>
+        <v>51.21957551032801</v>
       </c>
       <c r="S20">
-        <v>0.008003878539387386</v>
+        <v>0.004624121441181974</v>
       </c>
       <c r="T20">
-        <v>0.004093490416717671</v>
+        <v>0.00227530516947988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H21">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I21">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J21">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P21">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q21">
-        <v>20.680544151603</v>
+        <v>15.32319091537267</v>
       </c>
       <c r="R21">
-        <v>124.083264909618</v>
+        <v>91.93914549223599</v>
       </c>
       <c r="S21">
-        <v>0.008093904379068713</v>
+        <v>0.005533532439745581</v>
       </c>
       <c r="T21">
-        <v>0.00620929962514453</v>
+        <v>0.004084173110217715</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H22">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I22">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J22">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N22">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O22">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P22">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q22">
-        <v>19.368333390888</v>
+        <v>20.170356358088</v>
       </c>
       <c r="R22">
-        <v>116.210000345328</v>
+        <v>121.022138148528</v>
       </c>
       <c r="S22">
-        <v>0.007580334313186816</v>
+        <v>0.007283947700262273</v>
       </c>
       <c r="T22">
-        <v>0.005815310486131149</v>
+        <v>0.005376114382192205</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H23">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I23">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J23">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N23">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O23">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P23">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q23">
-        <v>9.355551236347498</v>
+        <v>9.399201175639</v>
       </c>
       <c r="R23">
-        <v>37.42220494538999</v>
+        <v>37.596804702556</v>
       </c>
       <c r="S23">
-        <v>0.003661554384902646</v>
+        <v>0.003394252861583451</v>
       </c>
       <c r="T23">
-        <v>0.00187265932524218</v>
+        <v>0.00167014668207084</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H24">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I24">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J24">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N24">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O24">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P24">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q24">
-        <v>12.617105559705</v>
+        <v>35.04985265665533</v>
       </c>
       <c r="R24">
-        <v>75.70263335823</v>
+        <v>210.299115939932</v>
       </c>
       <c r="S24">
-        <v>0.004938054104971547</v>
+        <v>0.01265725251059356</v>
       </c>
       <c r="T24">
-        <v>0.003788265349691615</v>
+        <v>0.009342027161835645</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.416583</v>
+        <v>0.308666</v>
       </c>
       <c r="H25">
-        <v>0.833166</v>
+        <v>0.617332</v>
       </c>
       <c r="I25">
-        <v>0.04002375326389206</v>
+        <v>0.03730121501115313</v>
       </c>
       <c r="J25">
-        <v>0.02772144849614155</v>
+        <v>0.02555844353710854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N25">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O25">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P25">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q25">
-        <v>19.791692252244</v>
+        <v>10.54522900718933</v>
       </c>
       <c r="R25">
-        <v>118.750153513464</v>
+        <v>63.27137404313601</v>
       </c>
       <c r="S25">
-        <v>0.00774602754237495</v>
+        <v>0.003808108057786286</v>
       </c>
       <c r="T25">
-        <v>0.005942423293214404</v>
+        <v>0.002810677031312253</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H26">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I26">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J26">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N26">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O26">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P26">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q26">
-        <v>54.07917421617083</v>
+        <v>43.41615123312001</v>
       </c>
       <c r="R26">
-        <v>324.475045297025</v>
+        <v>260.4969073987201</v>
       </c>
       <c r="S26">
-        <v>0.02116538432431705</v>
+        <v>0.01567850212036119</v>
       </c>
       <c r="T26">
-        <v>0.01623718378621904</v>
+        <v>0.01157194205794061</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H27">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I27">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J27">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>148.929823</v>
       </c>
       <c r="O27">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P27">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q27">
-        <v>54.68744469955277</v>
+        <v>51.95466518629334</v>
       </c>
       <c r="R27">
-        <v>492.187002295975</v>
+        <v>467.59198667664</v>
       </c>
       <c r="S27">
-        <v>0.02140344784397167</v>
+        <v>0.0187619423912583</v>
       </c>
       <c r="T27">
-        <v>0.02462972400898293</v>
+        <v>0.02077163767743833</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H28">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I28">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J28">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N28">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O28">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P28">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q28">
-        <v>51.21744638206666</v>
+        <v>68.38941817408001</v>
       </c>
       <c r="R28">
-        <v>460.9570174386</v>
+        <v>615.50476356672</v>
       </c>
       <c r="S28">
-        <v>0.02004536778711375</v>
+        <v>0.02469688370337674</v>
       </c>
       <c r="T28">
-        <v>0.02306693201274221</v>
+        <v>0.02734230333674785</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H29">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I29">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J29">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N29">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O29">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P29">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q29">
-        <v>24.73973543060416</v>
+        <v>31.86884199224001</v>
       </c>
       <c r="R29">
-        <v>148.438412583625</v>
+        <v>191.21305195344</v>
       </c>
       <c r="S29">
-        <v>0.009682581438421543</v>
+        <v>0.01150852142710495</v>
       </c>
       <c r="T29">
-        <v>0.007428065180940518</v>
+        <v>0.008494175151724154</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H30">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I30">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J30">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N30">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O30">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P30">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q30">
-        <v>33.36456030879167</v>
+        <v>118.8396966181867</v>
       </c>
       <c r="R30">
-        <v>300.281042779125</v>
+        <v>1069.55726956368</v>
       </c>
       <c r="S30">
-        <v>0.01305814580164704</v>
+        <v>0.04291555982028081</v>
       </c>
       <c r="T30">
-        <v>0.01502648215877099</v>
+        <v>0.04751248248830799</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.101608333333333</v>
+        <v>1.04656</v>
       </c>
       <c r="H31">
-        <v>3.304825</v>
+        <v>3.13968</v>
       </c>
       <c r="I31">
-        <v>0.1058384526655689</v>
+        <v>0.1264731443763564</v>
       </c>
       <c r="J31">
-        <v>0.1099595231037524</v>
+        <v>0.1299873228742216</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N31">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O31">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P31">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q31">
-        <v>52.33697274214445</v>
+        <v>35.75455304362668</v>
       </c>
       <c r="R31">
-        <v>471.0327546793001</v>
+        <v>321.7909773926401</v>
       </c>
       <c r="S31">
-        <v>0.02048352547009783</v>
+        <v>0.01291173491397438</v>
       </c>
       <c r="T31">
-        <v>0.02357113595609674</v>
+        <v>0.01429478216206264</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H32">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I32">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J32">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N32">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O32">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P32">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q32">
-        <v>225.700887710732</v>
+        <v>142.96183248978</v>
       </c>
       <c r="R32">
-        <v>1354.205326264392</v>
+        <v>857.77099493868</v>
       </c>
       <c r="S32">
-        <v>0.08833430058753988</v>
+        <v>0.05162657974417281</v>
       </c>
       <c r="T32">
-        <v>0.06776632312880444</v>
+        <v>0.03810439191594504</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H33">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I33">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J33">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>148.929823</v>
       </c>
       <c r="O33">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P33">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q33">
-        <v>228.2395209287386</v>
+        <v>171.0776734110733</v>
       </c>
       <c r="R33">
-        <v>2054.155688358648</v>
+        <v>1539.69906069966</v>
       </c>
       <c r="S33">
-        <v>0.08932786508804075</v>
+        <v>0.06177981210079773</v>
       </c>
       <c r="T33">
-        <v>0.1027928154131379</v>
+        <v>0.0683973890323797</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H34">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I34">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J34">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N34">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O34">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P34">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q34">
-        <v>213.757389646912</v>
+        <v>225.19445568952</v>
       </c>
       <c r="R34">
-        <v>1923.816506822208</v>
+        <v>2026.75010120568</v>
       </c>
       <c r="S34">
-        <v>0.08365988145371558</v>
+        <v>0.08132254128339962</v>
       </c>
       <c r="T34">
-        <v>0.09627046099535753</v>
+        <v>0.09003344788726897</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H35">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I35">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J35">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N35">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O35">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P35">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q35">
-        <v>103.25195103934</v>
+        <v>104.93855215481</v>
       </c>
       <c r="R35">
-        <v>619.5117062360399</v>
+        <v>629.63131292886</v>
       </c>
       <c r="S35">
-        <v>0.04041051398543225</v>
+        <v>0.03789555881249374</v>
       </c>
       <c r="T35">
-        <v>0.03100122976378841</v>
+        <v>0.0279698409621643</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H36">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I36">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J36">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N36">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O36">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P36">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q36">
-        <v>139.24788957892</v>
+        <v>391.3184452910467</v>
       </c>
       <c r="R36">
-        <v>1253.23100621028</v>
+        <v>3521.86600761942</v>
       </c>
       <c r="S36">
-        <v>0.05449852261994451</v>
+        <v>0.1413134720599512</v>
       </c>
       <c r="T36">
-        <v>0.06271342733243809</v>
+        <v>0.1564503386353937</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.597592</v>
+        <v>3.44614</v>
       </c>
       <c r="H37">
-        <v>13.792776</v>
+        <v>10.33842</v>
       </c>
       <c r="I37">
-        <v>0.44171962805982</v>
+        <v>0.4164540606951696</v>
       </c>
       <c r="J37">
-        <v>0.4589190263438706</v>
+        <v>0.4280256390935731</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N37">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O37">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P37">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q37">
-        <v>218.4297630133227</v>
+        <v>117.7335226129067</v>
       </c>
       <c r="R37">
-        <v>1965.867867119904</v>
+        <v>1059.60170351616</v>
       </c>
       <c r="S37">
-        <v>0.08548854432514703</v>
+        <v>0.04251609669435452</v>
       </c>
       <c r="T37">
-        <v>0.09837476971034416</v>
+        <v>0.04707023066042133</v>
       </c>
     </row>
   </sheetData>
